--- a/Labs_1st_smstr/Reports/Задание по 4 лабе эвм.xlsx
+++ b/Labs_1st_smstr/Reports/Задание по 4 лабе эвм.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Student practicum\Lab1_241_2\Labs_1st_smstr\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student Practicum\Lab1_241_2\Labs_1st_smstr\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{633DB50C-F758-4476-971A-80A1E0996E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB416D7C-7737-4FDD-897B-6F2EC39E2A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02A686DB-828E-443B-A9AF-4E0294F661E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{02A686DB-828E-443B-A9AF-4E0294F661E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -182,12 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -196,6 +195,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,14 +209,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -231,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -377,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,540 +525,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A761BDA-D7F3-43A7-AF13-4ECEF8DD50AB}">
-  <dimension ref="E1:Q29"/>
+  <dimension ref="E2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.08984375" customWidth="1"/>
-    <col min="15" max="15" width="8.6328125" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" customWidth="1"/>
-    <col min="17" max="17" width="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:17" x14ac:dyDescent="0.25">
       <c r="L2" s="1"/>
     </row>
-    <row r="15" spans="5:17" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="5:17" ht="5.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E17" s="4"/>
-      <c r="F17" s="11" t="s">
+    <row r="15" spans="5:17" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="5:17" ht="5.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E17" s="3"/>
+      <c r="F17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E18" s="4"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="3"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11">
         <v>0</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <v>1</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="11">
         <v>2</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="11">
         <v>3</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="11">
         <v>4</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="11">
         <v>5</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="11">
         <v>6</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="11">
         <v>7</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="11">
         <v>8</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="11">
         <v>9</v>
       </c>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E19" s="4"/>
-      <c r="F19" s="15">
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E19" s="3"/>
+      <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="16">
-        <f>CONCATENATE($F19,G$18)^2</f>
+      <c r="G19" s="12">
+        <f t="shared" ref="G19:P27" si="0">CONCATENATE($F19,G$18)^2</f>
         <v>100</v>
       </c>
-      <c r="H19" s="16">
-        <f>CONCATENATE($F19,H$18)^2</f>
+      <c r="H19" s="12">
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="I19" s="16">
-        <f>CONCATENATE($F19,I$18)^2</f>
+      <c r="I19" s="12">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="J19" s="16">
-        <f>CONCATENATE($F19,J$18)^2</f>
+      <c r="J19" s="12">
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="K19" s="16">
-        <f>CONCATENATE($F19,K$18)^2</f>
+      <c r="K19" s="12">
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="L19" s="16">
-        <f>CONCATENATE($F19,L$18)^2</f>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="M19" s="16">
-        <f>CONCATENATE($F19,M$18)^2</f>
+      <c r="M19" s="12">
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="N19" s="16">
-        <f>CONCATENATE($F19,N$18)^2</f>
+      <c r="N19" s="12">
+        <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="O19" s="16">
-        <f>CONCATENATE($F19,O$18)^2</f>
+      <c r="O19" s="12">
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="P19" s="17">
-        <f>CONCATENATE($F19,P$18)^2</f>
+      <c r="P19" s="12">
+        <f t="shared" si="0"/>
         <v>361</v>
       </c>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E20" s="4"/>
-      <c r="F20" s="15">
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E20" s="3"/>
+      <c r="F20" s="11">
         <v>2</v>
       </c>
-      <c r="G20" s="16">
-        <f>CONCATENATE($F20,G$18)^2</f>
+      <c r="G20" s="12">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H20" s="16">
-        <f>CONCATENATE($F20,H$18)^2</f>
+      <c r="H20" s="12">
+        <f t="shared" si="0"/>
         <v>441</v>
       </c>
-      <c r="I20" s="16">
-        <f>CONCATENATE($F20,I$18)^2</f>
+      <c r="I20" s="12">
+        <f t="shared" si="0"/>
         <v>484</v>
       </c>
-      <c r="J20" s="16">
-        <f>CONCATENATE($F20,J$18)^2</f>
+      <c r="J20" s="12">
+        <f t="shared" si="0"/>
         <v>529</v>
       </c>
-      <c r="K20" s="16">
-        <f>CONCATENATE($F20,K$18)^2</f>
+      <c r="K20" s="12">
+        <f t="shared" si="0"/>
         <v>576</v>
       </c>
-      <c r="L20" s="16">
-        <f>CONCATENATE($F20,L$18)^2</f>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
         <v>625</v>
       </c>
-      <c r="M20" s="16">
-        <f>CONCATENATE($F20,M$18)^2</f>
+      <c r="M20" s="12">
+        <f t="shared" si="0"/>
         <v>676</v>
       </c>
-      <c r="N20" s="16">
-        <f>CONCATENATE($F20,N$18)^2</f>
+      <c r="N20" s="12">
+        <f t="shared" si="0"/>
         <v>729</v>
       </c>
-      <c r="O20" s="16">
-        <f>CONCATENATE($F20,O$18)^2</f>
+      <c r="O20" s="12">
+        <f t="shared" si="0"/>
         <v>784</v>
       </c>
-      <c r="P20" s="17">
-        <f>CONCATENATE($F20,P$18)^2</f>
+      <c r="P20" s="12">
+        <f t="shared" si="0"/>
         <v>841</v>
       </c>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E21" s="4"/>
-      <c r="F21" s="15">
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E21" s="3"/>
+      <c r="F21" s="11">
         <v>3</v>
       </c>
-      <c r="G21" s="16">
-        <f>CONCATENATE($F21,G$18)^2</f>
+      <c r="G21" s="12">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H21" s="16">
-        <f>CONCATENATE($F21,H$18)^2</f>
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
         <v>961</v>
       </c>
-      <c r="I21" s="16">
-        <f>CONCATENATE($F21,I$18)^2</f>
+      <c r="I21" s="12">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="J21" s="16">
-        <f>CONCATENATE($F21,J$18)^2</f>
+      <c r="J21" s="12">
+        <f t="shared" si="0"/>
         <v>1089</v>
       </c>
-      <c r="K21" s="16">
-        <f>CONCATENATE($F21,K$18)^2</f>
+      <c r="K21" s="12">
+        <f t="shared" si="0"/>
         <v>1156</v>
       </c>
-      <c r="L21" s="16">
-        <f>CONCATENATE($F21,L$18)^2</f>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
         <v>1225</v>
       </c>
-      <c r="M21" s="16">
-        <f>CONCATENATE($F21,M$18)^2</f>
+      <c r="M21" s="12">
+        <f t="shared" si="0"/>
         <v>1296</v>
       </c>
-      <c r="N21" s="16">
-        <f>CONCATENATE($F21,N$18)^2</f>
+      <c r="N21" s="12">
+        <f t="shared" si="0"/>
         <v>1369</v>
       </c>
-      <c r="O21" s="16">
-        <f>CONCATENATE($F21,O$18)^2</f>
+      <c r="O21" s="12">
+        <f t="shared" si="0"/>
         <v>1444</v>
       </c>
-      <c r="P21" s="17">
-        <f>CONCATENATE($F21,P$18)^2</f>
+      <c r="P21" s="12">
+        <f t="shared" si="0"/>
         <v>1521</v>
       </c>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E22" s="4"/>
-      <c r="F22" s="15">
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E22" s="3"/>
+      <c r="F22" s="11">
         <v>4</v>
       </c>
-      <c r="G22" s="16">
-        <f>CONCATENATE($F22,G$18)^2</f>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="H22" s="16">
-        <f>CONCATENATE($F22,H$18)^2</f>
+      <c r="H22" s="12">
+        <f t="shared" si="0"/>
         <v>1681</v>
       </c>
-      <c r="I22" s="16">
-        <f>CONCATENATE($F22,I$18)^2</f>
+      <c r="I22" s="12">
+        <f t="shared" si="0"/>
         <v>1764</v>
       </c>
-      <c r="J22" s="16">
-        <f>CONCATENATE($F22,J$18)^2</f>
+      <c r="J22" s="12">
+        <f t="shared" si="0"/>
         <v>1849</v>
       </c>
-      <c r="K22" s="16">
-        <f>CONCATENATE($F22,K$18)^2</f>
+      <c r="K22" s="12">
+        <f t="shared" si="0"/>
         <v>1936</v>
       </c>
-      <c r="L22" s="16">
-        <f>CONCATENATE($F22,L$18)^2</f>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="M22" s="16">
-        <f>CONCATENATE($F22,M$18)^2</f>
+      <c r="M22" s="12">
+        <f t="shared" si="0"/>
         <v>2116</v>
       </c>
-      <c r="N22" s="16">
-        <f>CONCATENATE($F22,N$18)^2</f>
+      <c r="N22" s="12">
+        <f t="shared" si="0"/>
         <v>2209</v>
       </c>
-      <c r="O22" s="16">
-        <f>CONCATENATE($F22,O$18)^2</f>
+      <c r="O22" s="12">
+        <f t="shared" si="0"/>
         <v>2304</v>
       </c>
-      <c r="P22" s="17">
-        <f>CONCATENATE($F22,P$18)^2</f>
+      <c r="P22" s="12">
+        <f t="shared" si="0"/>
         <v>2401</v>
       </c>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E23" s="4"/>
-      <c r="F23" s="15">
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E23" s="3"/>
+      <c r="F23" s="11">
         <v>5</v>
       </c>
-      <c r="G23" s="16">
-        <f>CONCATENATE($F23,G$18)^2</f>
+      <c r="G23" s="12">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="H23" s="16">
-        <f>CONCATENATE($F23,H$18)^2</f>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
         <v>2601</v>
       </c>
-      <c r="I23" s="16">
-        <f>CONCATENATE($F23,I$18)^2</f>
+      <c r="I23" s="12">
+        <f t="shared" si="0"/>
         <v>2704</v>
       </c>
-      <c r="J23" s="16">
-        <f>CONCATENATE($F23,J$18)^2</f>
+      <c r="J23" s="12">
+        <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="K23" s="16">
-        <f>CONCATENATE($F23,K$18)^2</f>
+      <c r="K23" s="12">
+        <f t="shared" si="0"/>
         <v>2916</v>
       </c>
-      <c r="L23" s="16">
-        <f>CONCATENATE($F23,L$18)^2</f>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
         <v>3025</v>
       </c>
-      <c r="M23" s="16">
-        <f>CONCATENATE($F23,M$18)^2</f>
+      <c r="M23" s="12">
+        <f t="shared" si="0"/>
         <v>3136</v>
       </c>
-      <c r="N23" s="16">
-        <f>CONCATENATE($F23,N$18)^2</f>
+      <c r="N23" s="12">
+        <f t="shared" si="0"/>
         <v>3249</v>
       </c>
-      <c r="O23" s="16">
-        <f>CONCATENATE($F23,O$18)^2</f>
+      <c r="O23" s="12">
+        <f t="shared" si="0"/>
         <v>3364</v>
       </c>
-      <c r="P23" s="17">
-        <f>CONCATENATE($F23,P$18)^2</f>
+      <c r="P23" s="12">
+        <f t="shared" si="0"/>
         <v>3481</v>
       </c>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E24" s="4"/>
-      <c r="F24" s="15">
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E24" s="3"/>
+      <c r="F24" s="11">
         <v>6</v>
       </c>
-      <c r="G24" s="16">
-        <f>CONCATENATE($F24,G$18)^2</f>
+      <c r="G24" s="12">
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="H24" s="16">
-        <f>CONCATENATE($F24,H$18)^2</f>
+      <c r="H24" s="12">
+        <f t="shared" si="0"/>
         <v>3721</v>
       </c>
-      <c r="I24" s="16">
-        <f>CONCATENATE($F24,I$18)^2</f>
+      <c r="I24" s="12">
+        <f t="shared" si="0"/>
         <v>3844</v>
       </c>
-      <c r="J24" s="16">
-        <f>CONCATENATE($F24,J$18)^2</f>
+      <c r="J24" s="12">
+        <f t="shared" si="0"/>
         <v>3969</v>
       </c>
-      <c r="K24" s="16">
-        <f>CONCATENATE($F24,K$18)^2</f>
+      <c r="K24" s="12">
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="L24" s="16">
-        <f>CONCATENATE($F24,L$18)^2</f>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
         <v>4225</v>
       </c>
-      <c r="M24" s="16">
-        <f>CONCATENATE($F24,M$18)^2</f>
+      <c r="M24" s="12">
+        <f t="shared" si="0"/>
         <v>4356</v>
       </c>
-      <c r="N24" s="16">
-        <f>CONCATENATE($F24,N$18)^2</f>
+      <c r="N24" s="12">
+        <f t="shared" si="0"/>
         <v>4489</v>
       </c>
-      <c r="O24" s="16">
-        <f>CONCATENATE($F24,O$18)^2</f>
+      <c r="O24" s="12">
+        <f t="shared" si="0"/>
         <v>4624</v>
       </c>
-      <c r="P24" s="17">
-        <f>CONCATENATE($F24,P$18)^2</f>
+      <c r="P24" s="12">
+        <f t="shared" si="0"/>
         <v>4761</v>
       </c>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E25" s="4"/>
-      <c r="F25" s="15">
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E25" s="3"/>
+      <c r="F25" s="11">
         <v>7</v>
       </c>
-      <c r="G25" s="16">
-        <f>CONCATENATE($F25,G$18)^2</f>
+      <c r="G25" s="12">
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H25" s="16">
-        <f>CONCATENATE($F25,H$18)^2</f>
+      <c r="H25" s="12">
+        <f t="shared" si="0"/>
         <v>5041</v>
       </c>
-      <c r="I25" s="16">
-        <f>CONCATENATE($F25,I$18)^2</f>
+      <c r="I25" s="12">
+        <f t="shared" si="0"/>
         <v>5184</v>
       </c>
-      <c r="J25" s="16">
-        <f>CONCATENATE($F25,J$18)^2</f>
+      <c r="J25" s="12">
+        <f t="shared" si="0"/>
         <v>5329</v>
       </c>
-      <c r="K25" s="16">
-        <f>CONCATENATE($F25,K$18)^2</f>
+      <c r="K25" s="12">
+        <f t="shared" si="0"/>
         <v>5476</v>
       </c>
-      <c r="L25" s="16">
-        <f>CONCATENATE($F25,L$18)^2</f>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
         <v>5625</v>
       </c>
-      <c r="M25" s="16">
-        <f>CONCATENATE($F25,M$18)^2</f>
+      <c r="M25" s="12">
+        <f t="shared" si="0"/>
         <v>5776</v>
       </c>
-      <c r="N25" s="16">
-        <f>CONCATENATE($F25,N$18)^2</f>
+      <c r="N25" s="12">
+        <f t="shared" si="0"/>
         <v>5929</v>
       </c>
-      <c r="O25" s="16">
-        <f>CONCATENATE($F25,O$18)^2</f>
+      <c r="O25" s="12">
+        <f t="shared" si="0"/>
         <v>6084</v>
       </c>
-      <c r="P25" s="17">
-        <f>CONCATENATE($F25,P$18)^2</f>
+      <c r="P25" s="12">
+        <f t="shared" si="0"/>
         <v>6241</v>
       </c>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E26" s="4"/>
-      <c r="F26" s="15">
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E26" s="3"/>
+      <c r="F26" s="11">
         <v>8</v>
       </c>
-      <c r="G26" s="16">
-        <f>CONCATENATE($F26,G$18)^2</f>
+      <c r="G26" s="12">
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="H26" s="16">
-        <f>CONCATENATE($F26,H$18)^2</f>
+      <c r="H26" s="12">
+        <f t="shared" si="0"/>
         <v>6561</v>
       </c>
-      <c r="I26" s="16">
-        <f>CONCATENATE($F26,I$18)^2</f>
+      <c r="I26" s="12">
+        <f t="shared" si="0"/>
         <v>6724</v>
       </c>
-      <c r="J26" s="16">
-        <f>CONCATENATE($F26,J$18)^2</f>
+      <c r="J26" s="12">
+        <f t="shared" si="0"/>
         <v>6889</v>
       </c>
-      <c r="K26" s="16">
-        <f>CONCATENATE($F26,K$18)^2</f>
+      <c r="K26" s="12">
+        <f t="shared" si="0"/>
         <v>7056</v>
       </c>
-      <c r="L26" s="16">
-        <f>CONCATENATE($F26,L$18)^2</f>
+      <c r="L26" s="12">
+        <f t="shared" si="0"/>
         <v>7225</v>
       </c>
-      <c r="M26" s="16">
-        <f>CONCATENATE($F26,M$18)^2</f>
+      <c r="M26" s="12">
+        <f t="shared" si="0"/>
         <v>7396</v>
       </c>
-      <c r="N26" s="16">
-        <f>CONCATENATE($F26,N$18)^2</f>
+      <c r="N26" s="12">
+        <f t="shared" si="0"/>
         <v>7569</v>
       </c>
-      <c r="O26" s="16">
-        <f>CONCATENATE($F26,O$18)^2</f>
+      <c r="O26" s="12">
+        <f t="shared" si="0"/>
         <v>7744</v>
       </c>
-      <c r="P26" s="17">
-        <f>CONCATENATE($F26,P$18)^2</f>
+      <c r="P26" s="12">
+        <f t="shared" si="0"/>
         <v>7921</v>
       </c>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="5:17" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="E27" s="4"/>
-      <c r="F27" s="15">
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="5:17" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E27" s="3"/>
+      <c r="F27" s="11">
         <v>9</v>
       </c>
-      <c r="G27" s="16">
-        <f>CONCATENATE($F27,G$18)^2</f>
+      <c r="G27" s="12">
+        <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="H27" s="16">
-        <f>CONCATENATE($F27,H$18)^2</f>
+      <c r="H27" s="12">
+        <f t="shared" si="0"/>
         <v>8281</v>
       </c>
-      <c r="I27" s="16">
-        <f>CONCATENATE($F27,I$18)^2</f>
+      <c r="I27" s="12">
+        <f t="shared" si="0"/>
         <v>8464</v>
       </c>
-      <c r="J27" s="16">
-        <f>CONCATENATE($F27,J$18)^2</f>
+      <c r="J27" s="12">
+        <f t="shared" si="0"/>
         <v>8649</v>
       </c>
-      <c r="K27" s="16">
-        <f>CONCATENATE($F27,K$18)^2</f>
+      <c r="K27" s="12">
+        <f t="shared" si="0"/>
         <v>8836</v>
       </c>
-      <c r="L27" s="16">
-        <f>CONCATENATE($F27,L$18)^2</f>
+      <c r="L27" s="12">
+        <f t="shared" si="0"/>
         <v>9025</v>
       </c>
-      <c r="M27" s="16">
-        <f>CONCATENATE($F27,M$18)^2</f>
+      <c r="M27" s="12">
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
-      <c r="N27" s="16">
-        <f>CONCATENATE($F27,N$18)^2</f>
+      <c r="N27" s="12">
+        <f t="shared" si="0"/>
         <v>9409</v>
       </c>
-      <c r="O27" s="16">
-        <f>CONCATENATE($F27,O$18)^2</f>
+      <c r="O27" s="12">
+        <f t="shared" si="0"/>
         <v>9604</v>
       </c>
-      <c r="P27" s="17">
-        <f>CONCATENATE($F27,P$18)^2</f>
+      <c r="P27" s="12">
+        <f t="shared" si="0"/>
         <v>9801</v>
       </c>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="5:17" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="9"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="5:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="5:17" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="8"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="5:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F17:P17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>